--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming-new\automate_boring_python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A295297-B3FE-4B60-BB29-8D38E333D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D134DB-283A-42DD-A32C-2FC26F4A17A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF0EAFFA-8500-46B0-BFA9-7275ACE3EB5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF0EAFFA-8500-46B0-BFA9-7275ACE3EB5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -61,17 +61,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,11 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,135 +430,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C76864-D1D7-4891-94DA-50C44FE54937}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
+        <v>42099.565300925926</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>42099.153738425928</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
-        <v>42099</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0.56530092592592596</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>42100.532534722224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>42102.374803240738</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>42104.088194444441</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>42099</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.15373842592592593</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42100</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.5325347222222222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>42104.757372685184</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>42102</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.37480324074074073</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>42104.111643518518</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>42104</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8.819444444444445E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42104</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.75737268518518519</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42104</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.11164351851851852</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
+      <c r="C7">
         <v>98</v>
       </c>
     </row>
@@ -577,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645598C3-BC07-4DAC-812D-539D67758157}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
